--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H2">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I2">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J2">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.179820335643952</v>
+        <v>0.2171733333333333</v>
       </c>
       <c r="N2">
-        <v>0.179820335643952</v>
+        <v>0.65152</v>
       </c>
       <c r="O2">
-        <v>0.02783785959303181</v>
+        <v>0.03179704241434193</v>
       </c>
       <c r="P2">
-        <v>0.02783785959303181</v>
+        <v>0.03179704241434193</v>
       </c>
       <c r="Q2">
-        <v>15.39290818861563</v>
+        <v>18.61279898083556</v>
       </c>
       <c r="R2">
-        <v>15.39290818861563</v>
+        <v>167.51519082752</v>
       </c>
       <c r="S2">
-        <v>0.006774062715647875</v>
+        <v>0.007734940138137212</v>
       </c>
       <c r="T2">
-        <v>0.006774062715647875</v>
+        <v>0.007734940138137209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H3">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I3">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J3">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.45263357982021</v>
+        <v>5.467658</v>
       </c>
       <c r="N3">
-        <v>5.45263357982021</v>
+        <v>16.402974</v>
       </c>
       <c r="O3">
-        <v>0.8441183666113943</v>
+        <v>0.8005372973958559</v>
       </c>
       <c r="P3">
-        <v>0.8441183666113943</v>
+        <v>0.8005372973958557</v>
       </c>
       <c r="Q3">
-        <v>466.7541509127307</v>
+        <v>468.6045827447693</v>
       </c>
       <c r="R3">
-        <v>466.7541509127307</v>
+        <v>4217.441244702924</v>
       </c>
       <c r="S3">
-        <v>0.2054077015420808</v>
+        <v>0.1947384914928492</v>
       </c>
       <c r="T3">
-        <v>0.2054077015420808</v>
+        <v>0.1947384914928491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H4">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I4">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J4">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.827106491578174</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N4">
-        <v>0.827106491578174</v>
+        <v>0.047984</v>
       </c>
       <c r="O4">
-        <v>0.1280437737955739</v>
+        <v>0.002341830309445272</v>
       </c>
       <c r="P4">
-        <v>0.1280437737955739</v>
+        <v>0.002341830309445271</v>
       </c>
       <c r="Q4">
-        <v>70.80163787637233</v>
+        <v>1.370819846353778</v>
       </c>
       <c r="R4">
-        <v>70.80163787637233</v>
+        <v>12.337378617184</v>
       </c>
       <c r="S4">
-        <v>0.03115816254266054</v>
+        <v>0.0005696730224526892</v>
       </c>
       <c r="T4">
-        <v>0.03115816254266054</v>
+        <v>0.0005696730224526888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>254.799415439154</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H5">
-        <v>254.799415439154</v>
+        <v>257.114426</v>
       </c>
       <c r="I5">
-        <v>0.7243190796558198</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J5">
-        <v>0.7243190796558198</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.179820335643952</v>
+        <v>0.020244</v>
       </c>
       <c r="N5">
-        <v>0.179820335643952</v>
+        <v>0.06073199999999999</v>
       </c>
       <c r="O5">
-        <v>0.02783785959303181</v>
+        <v>0.002963988795290727</v>
       </c>
       <c r="P5">
-        <v>0.02783785959303181</v>
+        <v>0.002963988795290726</v>
       </c>
       <c r="Q5">
-        <v>45.81811640615143</v>
+        <v>1.735008146648</v>
       </c>
       <c r="R5">
-        <v>45.81811640615143</v>
+        <v>15.615073319832</v>
       </c>
       <c r="S5">
-        <v>0.02016349284001274</v>
+        <v>0.0007210191313687211</v>
       </c>
       <c r="T5">
-        <v>0.02016349284001274</v>
+        <v>0.0007210191313687207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>254.799415439154</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H6">
-        <v>254.799415439154</v>
+        <v>257.114426</v>
       </c>
       <c r="I6">
-        <v>0.7243190796558198</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J6">
-        <v>0.7243190796558198</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.45263357982021</v>
+        <v>1.108915333333333</v>
       </c>
       <c r="N6">
-        <v>5.45263357982021</v>
+        <v>3.326746</v>
       </c>
       <c r="O6">
-        <v>0.8441183666113943</v>
+        <v>0.1623598410850663</v>
       </c>
       <c r="P6">
-        <v>0.8441183666113943</v>
+        <v>0.1623598410850662</v>
       </c>
       <c r="Q6">
-        <v>1389.327848742091</v>
+        <v>95.03937647086622</v>
       </c>
       <c r="R6">
-        <v>1389.327848742091</v>
+        <v>855.3543882377959</v>
       </c>
       <c r="S6">
-        <v>0.6114110384245389</v>
+        <v>0.03949561205302587</v>
       </c>
       <c r="T6">
-        <v>0.6114110384245389</v>
+        <v>0.03949561205302586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H7">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I7">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J7">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.827106491578174</v>
+        <v>0.2171733333333333</v>
       </c>
       <c r="N7">
-        <v>0.827106491578174</v>
+        <v>0.65152</v>
       </c>
       <c r="O7">
-        <v>0.1280437737955739</v>
+        <v>0.03179704241434193</v>
       </c>
       <c r="P7">
-        <v>0.1280437737955739</v>
+        <v>0.03179704241434193</v>
       </c>
       <c r="Q7">
-        <v>210.7462505600483</v>
+        <v>55.36065151516444</v>
       </c>
       <c r="R7">
-        <v>210.7462505600483</v>
+        <v>498.24586363648</v>
       </c>
       <c r="S7">
-        <v>0.09274454839126803</v>
+        <v>0.02300628325266795</v>
       </c>
       <c r="T7">
-        <v>0.09274454839126803</v>
+        <v>0.02300628325266794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.376845483064</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H8">
-        <v>11.376845483064</v>
+        <v>764.743774</v>
       </c>
       <c r="I8">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J8">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.179820335643952</v>
+        <v>5.467658</v>
       </c>
       <c r="N8">
-        <v>0.179820335643952</v>
+        <v>16.402974</v>
       </c>
       <c r="O8">
-        <v>0.02783785959303181</v>
+        <v>0.8005372973958559</v>
       </c>
       <c r="P8">
-        <v>0.02783785959303181</v>
+        <v>0.8005372973958557</v>
       </c>
       <c r="Q8">
-        <v>2.045788173333948</v>
+        <v>1393.785804620431</v>
       </c>
       <c r="R8">
-        <v>2.045788173333948</v>
+        <v>12544.07224158388</v>
       </c>
       <c r="S8">
-        <v>0.0009003040373712009</v>
+        <v>0.5792170095010865</v>
       </c>
       <c r="T8">
-        <v>0.0009003040373712009</v>
+        <v>0.5792170095010863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.376845483064</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H9">
-        <v>11.376845483064</v>
+        <v>764.743774</v>
       </c>
       <c r="I9">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J9">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.45263357982021</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N9">
-        <v>5.45263357982021</v>
+        <v>0.047984</v>
       </c>
       <c r="O9">
-        <v>0.8441183666113943</v>
+        <v>0.002341830309445272</v>
       </c>
       <c r="P9">
-        <v>0.8441183666113943</v>
+        <v>0.002341830309445271</v>
       </c>
       <c r="Q9">
-        <v>62.03376971338065</v>
+        <v>4.077273916846223</v>
       </c>
       <c r="R9">
-        <v>62.03376971338065</v>
+        <v>36.695465251616</v>
       </c>
       <c r="S9">
-        <v>0.02729962664477446</v>
+        <v>0.001694396941914322</v>
       </c>
       <c r="T9">
-        <v>0.02729962664477446</v>
+        <v>0.001694396941914321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>254.9145913333333</v>
+      </c>
+      <c r="H10">
+        <v>764.743774</v>
+      </c>
+      <c r="I10">
+        <v>0.7235353198224201</v>
+      </c>
+      <c r="J10">
+        <v>0.7235353198224201</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.020244</v>
+      </c>
+      <c r="N10">
+        <v>0.06073199999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.002963988795290727</v>
+      </c>
+      <c r="P10">
+        <v>0.002963988795290726</v>
+      </c>
+      <c r="Q10">
+        <v>5.160490986951999</v>
+      </c>
+      <c r="R10">
+        <v>46.44441888256799</v>
+      </c>
+      <c r="S10">
+        <v>0.002144550580950746</v>
+      </c>
+      <c r="T10">
+        <v>0.002144550580950745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>254.9145913333333</v>
+      </c>
+      <c r="H11">
+        <v>764.743774</v>
+      </c>
+      <c r="I11">
+        <v>0.7235353198224201</v>
+      </c>
+      <c r="J11">
+        <v>0.7235353198224201</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.108915333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.326746</v>
+      </c>
+      <c r="O11">
+        <v>0.1623598410850663</v>
+      </c>
+      <c r="P11">
+        <v>0.1623598410850662</v>
+      </c>
+      <c r="Q11">
+        <v>282.6786990199337</v>
+      </c>
+      <c r="R11">
+        <v>2544.108291179404</v>
+      </c>
+      <c r="S11">
+        <v>0.1174730795458007</v>
+      </c>
+      <c r="T11">
+        <v>0.1174730795458007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.048856</v>
+      </c>
+      <c r="I12">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J12">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2171733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.65152</v>
+      </c>
+      <c r="O12">
+        <v>0.03179704241434193</v>
+      </c>
+      <c r="P12">
+        <v>0.03179704241434193</v>
+      </c>
+      <c r="Q12">
+        <v>0.003536740124444444</v>
+      </c>
+      <c r="R12">
+        <v>0.03183066112</v>
+      </c>
+      <c r="S12">
+        <v>1.469766754312073E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.469766754312072E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.048856</v>
+      </c>
+      <c r="I13">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J13">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.467658</v>
+      </c>
+      <c r="N13">
+        <v>16.402974</v>
+      </c>
+      <c r="O13">
+        <v>0.8005372973958559</v>
+      </c>
+      <c r="P13">
+        <v>0.8005372973958557</v>
+      </c>
+      <c r="Q13">
+        <v>0.08904263308266666</v>
+      </c>
+      <c r="R13">
+        <v>0.801383697744</v>
+      </c>
+      <c r="S13">
+        <v>3.700353919610345E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.700353919610344E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.048856</v>
+      </c>
+      <c r="I14">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J14">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01599466666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.047984</v>
+      </c>
+      <c r="O14">
+        <v>0.002341830309445272</v>
+      </c>
+      <c r="P14">
+        <v>0.002341830309445271</v>
+      </c>
+      <c r="Q14">
+        <v>0.0002604784782222222</v>
+      </c>
+      <c r="R14">
+        <v>0.002344306304</v>
+      </c>
+      <c r="S14">
+        <v>1.082473108099682E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.082473108099682E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.048856</v>
+      </c>
+      <c r="I15">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J15">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.020244</v>
+      </c>
+      <c r="N15">
+        <v>0.06073199999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.002963988795290727</v>
+      </c>
+      <c r="P15">
+        <v>0.002963988795290726</v>
+      </c>
+      <c r="Q15">
+        <v>0.0003296802879999999</v>
+      </c>
+      <c r="R15">
+        <v>0.002967122591999999</v>
+      </c>
+      <c r="S15">
+        <v>1.370055785284885E-07</v>
+      </c>
+      <c r="T15">
+        <v>1.370055785284884E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.048856</v>
+      </c>
+      <c r="I16">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.108915333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.326746</v>
+      </c>
+      <c r="O16">
+        <v>0.1623598410850663</v>
+      </c>
+      <c r="P16">
+        <v>0.1623598410850662</v>
+      </c>
+      <c r="Q16">
+        <v>0.01805905584177778</v>
+      </c>
+      <c r="R16">
+        <v>0.162531502576</v>
+      </c>
+      <c r="S16">
+        <v>7.504820528672444E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.504820528672442E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.342475</v>
+      </c>
+      <c r="I17">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J17">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2171733333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.65152</v>
+      </c>
+      <c r="O17">
+        <v>0.03179704241434193</v>
+      </c>
+      <c r="P17">
+        <v>0.03179704241434193</v>
+      </c>
+      <c r="Q17">
+        <v>0.02479214577777778</v>
+      </c>
+      <c r="R17">
+        <v>0.223129312</v>
+      </c>
+      <c r="S17">
+        <v>1.030289768263933E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.030289768263933E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.342475</v>
+      </c>
+      <c r="I18">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J18">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.467658</v>
+      </c>
+      <c r="N18">
+        <v>16.402974</v>
+      </c>
+      <c r="O18">
+        <v>0.8005372973958559</v>
+      </c>
+      <c r="P18">
+        <v>0.8005372973958557</v>
+      </c>
+      <c r="Q18">
+        <v>0.6241787245166668</v>
+      </c>
+      <c r="R18">
+        <v>5.617608520650001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002593905986201394</v>
+      </c>
+      <c r="T18">
+        <v>0.0002593905986201393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>11.376845483064</v>
-      </c>
-      <c r="H10">
-        <v>11.376845483064</v>
-      </c>
-      <c r="I10">
-        <v>0.03234099354379095</v>
-      </c>
-      <c r="J10">
-        <v>0.03234099354379095</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.827106491578174</v>
-      </c>
-      <c r="N10">
-        <v>0.827106491578174</v>
-      </c>
-      <c r="O10">
-        <v>0.1280437737955739</v>
-      </c>
-      <c r="P10">
-        <v>0.1280437737955739</v>
-      </c>
-      <c r="Q10">
-        <v>9.409862752724061</v>
-      </c>
-      <c r="R10">
-        <v>9.409862752724061</v>
-      </c>
-      <c r="S10">
-        <v>0.004141062861645283</v>
-      </c>
-      <c r="T10">
-        <v>0.004141062861645283</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.342475</v>
+      </c>
+      <c r="I19">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J19">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01599466666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.047984</v>
+      </c>
+      <c r="O19">
+        <v>0.002341830309445272</v>
+      </c>
+      <c r="P19">
+        <v>0.002341830309445271</v>
+      </c>
+      <c r="Q19">
+        <v>0.001825924488888889</v>
+      </c>
+      <c r="R19">
+        <v>0.0164333204</v>
+      </c>
+      <c r="S19">
+        <v>7.588013298191395E-07</v>
+      </c>
+      <c r="T19">
+        <v>7.588013298191391E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.342475</v>
+      </c>
+      <c r="I20">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J20">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.020244</v>
+      </c>
+      <c r="N20">
+        <v>0.06073199999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.002963988795290727</v>
+      </c>
+      <c r="P20">
+        <v>0.002963988795290726</v>
+      </c>
+      <c r="Q20">
+        <v>0.0023110213</v>
+      </c>
+      <c r="R20">
+        <v>0.0207991917</v>
+      </c>
+      <c r="S20">
+        <v>9.603935137249078E-07</v>
+      </c>
+      <c r="T20">
+        <v>9.603935137249073E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.342475</v>
+      </c>
+      <c r="I21">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J21">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.108915333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.326746</v>
+      </c>
+      <c r="O21">
+        <v>0.1623598410850663</v>
+      </c>
+      <c r="P21">
+        <v>0.1623598410850662</v>
+      </c>
+      <c r="Q21">
+        <v>0.1265919262611111</v>
+      </c>
+      <c r="R21">
+        <v>1.13932733635</v>
+      </c>
+      <c r="S21">
+        <v>5.260793782866169E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.260793782866168E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H22">
+        <v>34.704778</v>
+      </c>
+      <c r="I22">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J22">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2171733333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.65152</v>
+      </c>
+      <c r="O22">
+        <v>0.03179704241434193</v>
+      </c>
+      <c r="P22">
+        <v>0.03179704241434193</v>
+      </c>
+      <c r="Q22">
+        <v>2.512317440284444</v>
+      </c>
+      <c r="R22">
+        <v>22.61085696256</v>
+      </c>
+      <c r="S22">
+        <v>0.001044046359099824</v>
+      </c>
+      <c r="T22">
+        <v>0.001044046359099824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H23">
+        <v>34.704778</v>
+      </c>
+      <c r="I23">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J23">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.467658</v>
+      </c>
+      <c r="N23">
+        <v>16.402974</v>
+      </c>
+      <c r="O23">
+        <v>0.8005372973958559</v>
+      </c>
+      <c r="P23">
+        <v>0.8005372973958557</v>
+      </c>
+      <c r="Q23">
+        <v>63.25128568997466</v>
+      </c>
+      <c r="R23">
+        <v>569.261571209772</v>
+      </c>
+      <c r="S23">
+        <v>0.02628540226410407</v>
+      </c>
+      <c r="T23">
+        <v>0.02628540226410407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H24">
+        <v>34.704778</v>
+      </c>
+      <c r="I24">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J24">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01599466666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.047984</v>
+      </c>
+      <c r="O24">
+        <v>0.002341830309445272</v>
+      </c>
+      <c r="P24">
+        <v>0.002341830309445271</v>
+      </c>
+      <c r="Q24">
+        <v>0.1850304519502222</v>
+      </c>
+      <c r="R24">
+        <v>1.665274067552</v>
+      </c>
+      <c r="S24">
+        <v>7.689329643763198E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.689329643763195E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H25">
+        <v>34.704778</v>
+      </c>
+      <c r="I25">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J25">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.020244</v>
+      </c>
+      <c r="N25">
+        <v>0.06073199999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.002963988795290727</v>
+      </c>
+      <c r="P25">
+        <v>0.002963988795290726</v>
+      </c>
+      <c r="Q25">
+        <v>0.2341878419439999</v>
+      </c>
+      <c r="R25">
+        <v>2.107690577496</v>
+      </c>
+      <c r="S25">
+        <v>9.732168387900685E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.732168387900682E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H26">
+        <v>34.704778</v>
+      </c>
+      <c r="I26">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J26">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.108915333333333</v>
+      </c>
+      <c r="N26">
+        <v>3.326746</v>
+      </c>
+      <c r="O26">
+        <v>0.1623598410850663</v>
+      </c>
+      <c r="P26">
+        <v>0.1623598410850662</v>
+      </c>
+      <c r="Q26">
+        <v>12.82822015470978</v>
+      </c>
+      <c r="R26">
+        <v>115.453981392388</v>
+      </c>
+      <c r="S26">
+        <v>0.005331036727882344</v>
+      </c>
+      <c r="T26">
+        <v>0.005331036727882343</v>
       </c>
     </row>
   </sheetData>
